--- a/Process/Estimation/Estimation Sample - WBS.xlsx
+++ b/Process/Estimation/Estimation Sample - WBS.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHN-RAFI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFDEEBB1-4081-474F-9F4B-6D4DDE17A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="8_{26F7CD7B-AE75-4682-AAE2-31C96CAAD7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89723975-D43A-493B-86D2-5D822DA55EAE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="refined Estimation" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimation SprintOne" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="86">
   <si>
     <t>S.No</t>
   </si>
@@ -180,6 +182,120 @@
   <si>
     <t>Total esimated time for Unique pages</t>
   </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dashboard</t>
+  </si>
+  <si>
+    <t>Profile Page</t>
+  </si>
+  <si>
+    <t>List(Coordinator)</t>
+  </si>
+  <si>
+    <t>Add(coordinator)</t>
+  </si>
+  <si>
+    <t>Edit(coordinator)</t>
+  </si>
+  <si>
+    <t>Disable(coordinator)</t>
+  </si>
+  <si>
+    <t>List view(dept)</t>
+  </si>
+  <si>
+    <t>Add dept</t>
+  </si>
+  <si>
+    <t>Edit dept</t>
+  </si>
+  <si>
+    <t>Delete dept</t>
+  </si>
+  <si>
+    <t>Add Topic</t>
+  </si>
+  <si>
+    <t>Edit Topic</t>
+  </si>
+  <si>
+    <t>Add Course</t>
+  </si>
+  <si>
+    <t>Edit Course</t>
+  </si>
+  <si>
+    <t>Delete Course</t>
+  </si>
+  <si>
+    <t>Assign Course</t>
+  </si>
+  <si>
+    <t>Edit assigned review</t>
+  </si>
+  <si>
+    <t>Cancel review</t>
+  </si>
+  <si>
+    <t>My Course list</t>
+  </si>
+  <si>
+    <t>Course detail view</t>
+  </si>
+  <si>
+    <t>Topic detail view</t>
+  </si>
+  <si>
+    <t>Delete assignment</t>
+  </si>
+  <si>
+    <t>Add feedback</t>
+  </si>
+  <si>
+    <t>View feedback</t>
+  </si>
+  <si>
+    <t>Edit feedback</t>
+  </si>
+  <si>
+    <t>Review details</t>
+  </si>
+  <si>
+    <t>Assignment status view</t>
+  </si>
+  <si>
+    <t>View assignment</t>
+  </si>
+  <si>
+    <t>View Profile</t>
+  </si>
+  <si>
+    <t>coordinator list</t>
+  </si>
+  <si>
+    <t>Coordinator(Add,Edit)</t>
+  </si>
+  <si>
+    <t>Dept(ADD,EDIT,DEL)</t>
+  </si>
+  <si>
+    <t>Course(ADD,EDIT)</t>
+  </si>
+  <si>
+    <t>Course List</t>
+  </si>
+  <si>
+    <t>View Attendence</t>
+  </si>
+  <si>
+    <t>Course Feedback</t>
+  </si>
+  <si>
+    <t>MOM</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -232,11 +354,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E587CB-A2A0-490F-98EB-8682FC24F931}">
   <dimension ref="A1:L377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -3982,4 +4105,5021 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AC7A6-2934-465A-B104-B8D88A31FA76}">
+  <dimension ref="A1:I470"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(D2:D12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <f>SUM(D15:D25)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <f>SUM(D28:D38)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
+        <f>SUM(D41:D51)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
+        <f>SUM(D55:D65)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2">
+        <f>SUM(D68:D78)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2">
+        <f>SUM(D81:D91)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2">
+        <f>SUM(D94:D104)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2">
+        <f>SUM(D108:D118)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2">
+        <f>SUM(D121:D131)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2">
+        <f>SUM(D134:D144)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2">
+        <f>SUM(D147:D157)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2">
+        <f>SUM(D160:D170)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2">
+        <f>SUM(D173:D183)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2">
+        <f>SUM(D186:D196)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="C204" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2">
+        <f>SUM(D199:D209)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>17</v>
+      </c>
+      <c r="B212" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="C219" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2">
+        <f>SUM(D212:D222)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="C230" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="C231" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2">
+        <f>SUM(D225:D235)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>19</v>
+      </c>
+      <c r="B238" t="s">
+        <v>64</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="C243" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="C244" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="C245" t="s">
+        <v>16</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2">
+        <f>SUM(D238:D248)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>20</v>
+      </c>
+      <c r="B251" t="s">
+        <v>27</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="C256" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="C258" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2">
+        <f>SUM(D251:D261)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>21</v>
+      </c>
+      <c r="B264" t="s">
+        <v>65</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="C269" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="C270" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="C271" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2">
+        <f>SUM(D264:D274)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>22</v>
+      </c>
+      <c r="B277" t="s">
+        <v>66</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="C280" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="C281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="C282" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="C283" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="C284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2">
+        <f>SUM(D277:D287)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>23</v>
+      </c>
+      <c r="B290" t="s">
+        <v>67</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="C292" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="C294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="C296" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="C297" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2">
+        <f>SUM(D290:D300)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>24</v>
+      </c>
+      <c r="B303" t="s">
+        <v>68</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="C304" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="C305" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="C307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="C309" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="C310" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2">
+        <f>SUM(D303:D313)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>25</v>
+      </c>
+      <c r="B316" t="s">
+        <v>69</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="C318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="C319" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="C320" t="s">
+        <v>13</v>
+      </c>
+      <c r="D320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="C321" t="s">
+        <v>14</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="C322" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="C323" t="s">
+        <v>16</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2">
+        <f>SUM(D316:D326)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>26</v>
+      </c>
+      <c r="B329" t="s">
+        <v>36</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="C330" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="C331" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="C333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="C334" t="s">
+        <v>14</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="C335" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="C336" t="s">
+        <v>16</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2">
+        <f>SUM(D329:D339)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>27</v>
+      </c>
+      <c r="B342" t="s">
+        <v>37</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="C343" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="C344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="C345" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="C346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="C347" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="C348" t="s">
+        <v>15</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="C349" t="s">
+        <v>16</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2">
+        <f>SUM(D342:D352)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>28</v>
+      </c>
+      <c r="B355" t="s">
+        <v>70</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="C356" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="C357" t="s">
+        <v>10</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="C358" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="C359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="C360" t="s">
+        <v>14</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="C361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="C362" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2">
+        <f>SUM(D355:D365)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>29</v>
+      </c>
+      <c r="B368" t="s">
+        <v>71</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="C369" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="C370" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="C371" t="s">
+        <v>12</v>
+      </c>
+      <c r="D371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="C372" t="s">
+        <v>13</v>
+      </c>
+      <c r="D372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="C373" t="s">
+        <v>14</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="C374" t="s">
+        <v>15</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="C375" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2">
+        <f>SUM(D368:D378)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>30</v>
+      </c>
+      <c r="B381" t="s">
+        <v>72</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="C382" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="C383" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="C384" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="C385" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="C386" t="s">
+        <v>14</v>
+      </c>
+      <c r="D386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="C387" t="s">
+        <v>15</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="C388" t="s">
+        <v>16</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2">
+        <f>SUM(D381:D391)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394">
+        <v>31</v>
+      </c>
+      <c r="B394" t="s">
+        <v>73</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="C395" t="s">
+        <v>8</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="C396" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="C397" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="C398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="C399" t="s">
+        <v>14</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="C400" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="C401" t="s">
+        <v>16</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D404" s="1"/>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2">
+        <f>SUM(D394:D404)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407">
+        <v>32</v>
+      </c>
+      <c r="B407" t="s">
+        <v>74</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="C408" t="s">
+        <v>8</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="C409" t="s">
+        <v>10</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="C410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="C412" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="C413" t="s">
+        <v>15</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="C414" t="s">
+        <v>16</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D416" s="1"/>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D417" s="1"/>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2">
+        <f>SUM(D407:D417)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>33</v>
+      </c>
+      <c r="B420" t="s">
+        <v>29</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="C421" t="s">
+        <v>8</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="C422" t="s">
+        <v>10</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="C423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="C424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="C425" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="C426" t="s">
+        <v>15</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="C427" t="s">
+        <v>16</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D428" s="1"/>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D429" s="1"/>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2">
+        <f>SUM(D420:D430)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>34</v>
+      </c>
+      <c r="B433" t="s">
+        <v>31</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="C434" t="s">
+        <v>8</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="C435" t="s">
+        <v>10</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="C436" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="C437" t="s">
+        <v>13</v>
+      </c>
+      <c r="D437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="C438" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="C439" t="s">
+        <v>15</v>
+      </c>
+      <c r="D439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="C440" t="s">
+        <v>16</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D441" s="1"/>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D442" s="1"/>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443" s="1"/>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2">
+        <f>SUM(D433:D443)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>35</v>
+      </c>
+      <c r="B446" t="s">
+        <v>75</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="C447" t="s">
+        <v>8</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="C448" t="s">
+        <v>10</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="C449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D449">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="C450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="C451" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="C452" t="s">
+        <v>15</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="C453" t="s">
+        <v>16</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D454" s="1"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="2"/>
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2">
+        <f>SUM(D446:D456)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459">
+        <v>36</v>
+      </c>
+      <c r="B459" t="s">
+        <v>76</v>
+      </c>
+      <c r="C459" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="C460" t="s">
+        <v>8</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="C461" t="s">
+        <v>10</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="C462" t="s">
+        <v>12</v>
+      </c>
+      <c r="D462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="C463" t="s">
+        <v>13</v>
+      </c>
+      <c r="D463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="C464" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="C465" t="s">
+        <v>15</v>
+      </c>
+      <c r="D465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="C466" t="s">
+        <v>16</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D467" s="1"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D468" s="1"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469" s="1"/>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="2"/>
+      <c r="B470" s="2"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="2">
+        <f>SUM(D459:D469)</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE0C87E-44F3-4CBC-941A-A0ED96B6110E}">
+  <dimension ref="A1:D164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(D2:D12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(D17:D27)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2">
+        <f>SUM(D32:D42)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="2">
+        <f>SUM(D47:D57)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="2">
+        <f>SUM(D62:D72)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="2">
+        <f>SUM(D77:D87)</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="2">
+        <f>SUM(D92:D102)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="2">
+        <f>SUM(D107:D117)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="2">
+        <f>SUM(D122:D132)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="2">
+        <f>SUM(D137:D147)</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>85</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" s="2">
+        <f>SUM(D152:D162)</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Process/Estimation/Estimation Sample - WBS.xlsx
+++ b/Process/Estimation/Estimation Sample - WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHN-RAFI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{26F7CD7B-AE75-4682-AAE2-31C96CAAD7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89723975-D43A-493B-86D2-5D822DA55EAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D602AF1B-2065-4FA6-A7A1-D1E19CD5E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="87">
   <si>
     <t>S.No</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>MOM</t>
+  </si>
+  <si>
+    <t>Total time</t>
   </si>
 </sst>
 </file>
@@ -4111,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AC7A6-2934-465A-B104-B8D88A31FA76}">
   <dimension ref="A1:I470"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="F469" sqref="F469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4213,7 +4216,9 @@
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
@@ -4221,7 +4226,9 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
@@ -4250,7 +4257,7 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D12)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4329,7 +4336,9 @@
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
@@ -4353,7 +4362,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <f>SUM(D15:D25)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4432,7 +4441,9 @@
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
@@ -4440,7 +4451,9 @@
       <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1"/>
@@ -4456,7 +4469,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2">
         <f>SUM(D28:D38)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4535,7 +4548,9 @@
       <c r="C49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1"/>
@@ -4543,7 +4558,9 @@
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1"/>
@@ -4559,7 +4576,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2">
         <f>SUM(D41:D51)</f>
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4638,7 +4655,9 @@
       <c r="C63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1"/>
@@ -4646,7 +4665,9 @@
       <c r="C64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1"/>
@@ -4662,7 +4683,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2">
         <f>SUM(D55:D65)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4741,7 +4762,9 @@
       <c r="C76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1"/>
@@ -4749,7 +4772,9 @@
       <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1"/>
@@ -4765,7 +4790,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2">
         <f>SUM(D68:D78)</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4844,7 +4869,9 @@
       <c r="C89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1"/>
@@ -4852,7 +4879,9 @@
       <c r="C90" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1"/>
@@ -4868,7 +4897,7 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2">
         <f>SUM(D81:D91)</f>
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4947,7 +4976,9 @@
       <c r="C102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1"/>
@@ -4955,7 +4986,9 @@
       <c r="C103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1"/>
@@ -4971,7 +5004,7 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2">
         <f>SUM(D94:D104)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5050,7 +5083,9 @@
       <c r="C116" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1"/>
@@ -5058,7 +5093,9 @@
       <c r="C117" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1"/>
@@ -5074,7 +5111,7 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2">
         <f>SUM(D108:D118)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5153,7 +5190,9 @@
       <c r="C129" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1"/>
@@ -5161,7 +5200,9 @@
       <c r="C130" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1"/>
@@ -5177,7 +5218,7 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2">
         <f>SUM(D121:D131)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5256,7 +5297,9 @@
       <c r="C142" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1"/>
@@ -5264,7 +5307,9 @@
       <c r="C143" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1"/>
@@ -5280,7 +5325,7 @@
       <c r="C145" s="2"/>
       <c r="D145" s="2">
         <f>SUM(D134:D144)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5359,7 +5404,9 @@
       <c r="C155" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1"/>
@@ -5367,7 +5414,9 @@
       <c r="C156" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D156" s="1"/>
+      <c r="D156" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1"/>
@@ -5383,7 +5432,7 @@
       <c r="C158" s="2"/>
       <c r="D158" s="2">
         <f>SUM(D147:D157)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5462,7 +5511,9 @@
       <c r="C168" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D168" s="1"/>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1"/>
@@ -5470,7 +5521,9 @@
       <c r="C169" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D169" s="1"/>
+      <c r="D169" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1"/>
@@ -5486,7 +5539,7 @@
       <c r="C171" s="2"/>
       <c r="D171" s="2">
         <f>SUM(D160:D170)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5565,7 +5618,9 @@
       <c r="C181" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1"/>
@@ -5573,7 +5628,9 @@
       <c r="C182" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D182" s="1"/>
+      <c r="D182" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1"/>
@@ -5589,7 +5646,7 @@
       <c r="C184" s="2"/>
       <c r="D184" s="2">
         <f>SUM(D173:D183)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5668,7 +5725,9 @@
       <c r="C194" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D194" s="1"/>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1"/>
@@ -5676,7 +5735,9 @@
       <c r="C195" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1"/>
@@ -5692,7 +5753,7 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2">
         <f>SUM(D186:D196)</f>
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5771,7 +5832,9 @@
       <c r="C207" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D207" s="1"/>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1"/>
@@ -5779,7 +5842,9 @@
       <c r="C208" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D208" s="1"/>
+      <c r="D208" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1"/>
@@ -5795,7 +5860,7 @@
       <c r="C210" s="2"/>
       <c r="D210" s="2">
         <f>SUM(D199:D209)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5874,7 +5939,9 @@
       <c r="C220" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="1"/>
+      <c r="D220" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1"/>
@@ -5882,7 +5949,9 @@
       <c r="C221" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="1"/>
+      <c r="D221" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1"/>
@@ -5898,7 +5967,7 @@
       <c r="C223" s="2"/>
       <c r="D223" s="2">
         <f>SUM(D212:D222)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5977,7 +6046,9 @@
       <c r="C233" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D233" s="1"/>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1"/>
@@ -5993,7 +6064,9 @@
       <c r="C235" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="1"/>
+      <c r="D235" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2"/>
@@ -6001,7 +6074,7 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2">
         <f>SUM(D225:D235)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6080,7 +6153,9 @@
       <c r="C246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D246" s="1"/>
+      <c r="D246" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="1"/>
@@ -6088,7 +6163,9 @@
       <c r="C247" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D247" s="1"/>
+      <c r="D247" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1"/>
@@ -6104,7 +6181,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="2">
         <f>SUM(D238:D248)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6183,7 +6260,9 @@
       <c r="C259" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D259" s="1"/>
+      <c r="D259" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1"/>
@@ -6191,7 +6270,9 @@
       <c r="C260" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D260" s="1"/>
+      <c r="D260" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1"/>
@@ -6207,7 +6288,7 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2">
         <f>SUM(D251:D261)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6286,7 +6367,9 @@
       <c r="C272" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D272" s="1"/>
+      <c r="D272" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1"/>
@@ -6294,7 +6377,9 @@
       <c r="C273" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D273" s="1"/>
+      <c r="D273" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="1"/>
@@ -6310,7 +6395,7 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2">
         <f>SUM(D264:D274)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6389,7 +6474,9 @@
       <c r="C285" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D285" s="1"/>
+      <c r="D285" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="1"/>
@@ -6397,7 +6484,9 @@
       <c r="C286" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D286" s="1"/>
+      <c r="D286" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1"/>
@@ -6413,7 +6502,7 @@
       <c r="C288" s="2"/>
       <c r="D288" s="2">
         <f>SUM(D277:D287)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6492,7 +6581,9 @@
       <c r="C298" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D298" s="1"/>
+      <c r="D298" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1"/>
@@ -6500,7 +6591,9 @@
       <c r="C299" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D299" s="1"/>
+      <c r="D299" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1"/>
@@ -6516,7 +6609,7 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2">
         <f>SUM(D290:D300)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6595,7 +6688,9 @@
       <c r="C311" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D311" s="1"/>
+      <c r="D311" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1"/>
@@ -6603,7 +6698,9 @@
       <c r="C312" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D312" s="1"/>
+      <c r="D312" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1"/>
@@ -6619,7 +6716,7 @@
       <c r="C314" s="2"/>
       <c r="D314" s="2">
         <f>SUM(D303:D313)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6698,7 +6795,9 @@
       <c r="C324" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D324" s="1"/>
+      <c r="D324" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1"/>
@@ -6706,7 +6805,9 @@
       <c r="C325" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D325" s="1"/>
+      <c r="D325" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1"/>
@@ -6722,7 +6823,7 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2">
         <f>SUM(D316:D326)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6801,7 +6902,9 @@
       <c r="C337" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D337" s="1"/>
+      <c r="D337" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1"/>
@@ -6809,7 +6912,9 @@
       <c r="C338" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D338" s="1"/>
+      <c r="D338" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1"/>
@@ -6825,7 +6930,7 @@
       <c r="C340" s="2"/>
       <c r="D340" s="2">
         <f>SUM(D329:D339)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6904,7 +7009,9 @@
       <c r="C350" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D350" s="1"/>
+      <c r="D350" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1"/>
@@ -6912,7 +7019,9 @@
       <c r="C351" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D351" s="1"/>
+      <c r="D351" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1"/>
@@ -6928,7 +7037,7 @@
       <c r="C353" s="2"/>
       <c r="D353" s="2">
         <f>SUM(D342:D352)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -7007,7 +7116,9 @@
       <c r="C363" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D363" s="1"/>
+      <c r="D363" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1"/>
@@ -7015,7 +7126,9 @@
       <c r="C364" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D364" s="1"/>
+      <c r="D364" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="1"/>
@@ -7031,7 +7144,7 @@
       <c r="C366" s="2"/>
       <c r="D366" s="2">
         <f>SUM(D355:D365)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7110,7 +7223,9 @@
       <c r="C376" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D376" s="1"/>
+      <c r="D376" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1"/>
@@ -7118,7 +7233,9 @@
       <c r="C377" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D377" s="1"/>
+      <c r="D377" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1"/>
@@ -7134,7 +7251,7 @@
       <c r="C379" s="2"/>
       <c r="D379" s="2">
         <f>SUM(D368:D378)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7213,7 +7330,9 @@
       <c r="C389" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D389" s="1"/>
+      <c r="D389" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1"/>
@@ -7221,7 +7340,9 @@
       <c r="C390" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D390" s="1"/>
+      <c r="D390" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1"/>
@@ -7237,7 +7358,7 @@
       <c r="C392" s="2"/>
       <c r="D392" s="2">
         <f>SUM(D381:D391)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7316,7 +7437,9 @@
       <c r="C402" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D402" s="1"/>
+      <c r="D402" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="1"/>
@@ -7324,7 +7447,9 @@
       <c r="C403" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D403" s="1"/>
+      <c r="D403" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1"/>
@@ -7340,7 +7465,7 @@
       <c r="C405" s="2"/>
       <c r="D405" s="2">
         <f>SUM(D394:D404)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7419,7 +7544,9 @@
       <c r="C415" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D415" s="1"/>
+      <c r="D415" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1"/>
@@ -7427,7 +7554,9 @@
       <c r="C416" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D416" s="1"/>
+      <c r="D416" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1"/>
@@ -7443,7 +7572,7 @@
       <c r="C418" s="2"/>
       <c r="D418" s="2">
         <f>SUM(D407:D417)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7522,7 +7651,9 @@
       <c r="C428" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D428" s="1"/>
+      <c r="D428" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1"/>
@@ -7530,7 +7661,9 @@
       <c r="C429" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D429" s="1"/>
+      <c r="D429" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1"/>
@@ -7546,7 +7679,7 @@
       <c r="C431" s="2"/>
       <c r="D431" s="2">
         <f>SUM(D420:D430)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7625,7 +7758,9 @@
       <c r="C441" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D441" s="1"/>
+      <c r="D441" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="1"/>
@@ -7633,7 +7768,9 @@
       <c r="C442" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D442" s="1"/>
+      <c r="D442" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="1"/>
@@ -7649,7 +7786,7 @@
       <c r="C444" s="2"/>
       <c r="D444" s="2">
         <f>SUM(D433:D443)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7728,7 +7865,9 @@
       <c r="C454" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D454" s="1"/>
+      <c r="D454" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1"/>
@@ -7736,7 +7875,9 @@
       <c r="C455" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D455" s="1"/>
+      <c r="D455" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="1"/>
@@ -7752,7 +7893,7 @@
       <c r="C457" s="2"/>
       <c r="D457" s="2">
         <f>SUM(D446:D456)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7831,7 +7972,9 @@
       <c r="C467" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D467" s="1"/>
+      <c r="D467" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1"/>
@@ -7839,7 +7982,9 @@
       <c r="C468" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D468" s="1"/>
+      <c r="D468" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1"/>
@@ -7855,7 +8000,7 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2">
         <f>SUM(D459:D469)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7865,10 +8010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE0C87E-44F3-4CBC-941A-A0ED96B6110E}">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7911,7 +8056,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7919,7 +8064,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7927,7 +8072,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7935,7 +8080,7 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7943,7 +8088,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7951,7 +8096,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8000,7 +8145,7 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D12)</f>
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8464,7 +8609,7 @@
         <v>6</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8472,7 +8617,7 @@
         <v>8</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8561,7 +8706,7 @@
       </c>
       <c r="D89" s="2">
         <f>SUM(D77:D87)</f>
-        <v>20.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8694,7 +8839,7 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8702,7 +8847,7 @@
         <v>10</v>
       </c>
       <c r="D109">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8710,7 +8855,7 @@
         <v>12</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8718,7 +8863,7 @@
         <v>13</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8726,7 +8871,7 @@
         <v>14</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8734,7 +8879,7 @@
         <v>15</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8742,7 +8887,7 @@
         <v>16</v>
       </c>
       <c r="D114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8783,7 +8928,7 @@
       </c>
       <c r="D119" s="2">
         <f>SUM(D107:D117)</f>
-        <v>19</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8805,7 +8950,7 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8821,7 +8966,7 @@
         <v>12</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8845,7 +8990,7 @@
         <v>15</v>
       </c>
       <c r="D128">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8894,7 +9039,7 @@
       </c>
       <c r="D134" s="2">
         <f>SUM(D122:D132)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -9119,6 +9264,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="167" spans="1:4">
+      <c r="C167" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167">
+        <v>252.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process/Estimation/Estimation Sample - WBS.xlsx
+++ b/Process/Estimation/Estimation Sample - WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHN-RAFI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D602AF1B-2065-4FA6-A7A1-D1E19CD5E1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B0F988-7406-496A-8B86-3BDB2E03E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{813F1D14-437E-4E9E-A964-A3190BB7C894}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="125">
   <si>
     <t>S.No</t>
   </si>
@@ -189,73 +189,187 @@
     <t xml:space="preserve"> Dashboard</t>
   </si>
   <si>
+    <t>Get user(id)</t>
+  </si>
+  <si>
+    <t>count (Department)</t>
+  </si>
+  <si>
+    <t>count(trainer)</t>
+  </si>
+  <si>
+    <t>count(tarinee)</t>
+  </si>
+  <si>
+    <t>count(co ordinator)</t>
+  </si>
+  <si>
     <t>Profile Page</t>
   </si>
   <si>
     <t>List(Coordinator)</t>
   </si>
   <si>
+    <t>getall(role ID)</t>
+  </si>
+  <si>
+    <t>search(user)</t>
+  </si>
+  <si>
     <t>Add(coordinator)</t>
   </si>
   <si>
+    <t>create(co-ordinator)</t>
+  </si>
+  <si>
     <t>Edit(coordinator)</t>
   </si>
   <si>
+    <t>update(co-ordinator)</t>
+  </si>
+  <si>
     <t>Disable(coordinator)</t>
   </si>
   <si>
+    <t>delete(co-ordinator)</t>
+  </si>
+  <si>
     <t>List view(dept)</t>
   </si>
   <si>
+    <t>getall(dept)</t>
+  </si>
+  <si>
+    <t>search(dept)</t>
+  </si>
+  <si>
     <t>Add dept</t>
   </si>
   <si>
+    <t>create(dept)</t>
+  </si>
+  <si>
     <t>Edit dept</t>
   </si>
   <si>
+    <t>update(dept)</t>
+  </si>
+  <si>
     <t>Delete dept</t>
   </si>
   <si>
+    <t>delete(dept)</t>
+  </si>
+  <si>
     <t>Add Topic</t>
   </si>
   <si>
+    <t>create(topic)</t>
+  </si>
+  <si>
     <t>Edit Topic</t>
   </si>
   <si>
+    <t>update(topic)</t>
+  </si>
+  <si>
     <t>Add Course</t>
   </si>
   <si>
+    <t>create(course)</t>
+  </si>
+  <si>
     <t>Edit Course</t>
   </si>
   <si>
+    <t>update(course)</t>
+  </si>
+  <si>
     <t>Delete Course</t>
   </si>
   <si>
+    <t>delete(course)</t>
+  </si>
+  <si>
+    <t>getallusercourse()</t>
+  </si>
+  <si>
+    <t>getattendance(topic)</t>
+  </si>
+  <si>
     <t>Assign Course</t>
   </si>
   <si>
+    <t>getalluser(deptID)</t>
+  </si>
+  <si>
+    <t>getallcourse(deptID)</t>
+  </si>
+  <si>
+    <t>getalldept()</t>
+  </si>
+  <si>
+    <t>getalluser(roleID)</t>
+  </si>
+  <si>
+    <t>createreview()</t>
+  </si>
+  <si>
     <t>Edit assigned review</t>
   </si>
   <si>
+    <t>updatereview()</t>
+  </si>
+  <si>
     <t>Cancel review</t>
   </si>
   <si>
+    <t>deletereview()</t>
+  </si>
+  <si>
     <t>My Course list</t>
   </si>
   <si>
+    <t>getallcourse(userID)</t>
+  </si>
+  <si>
     <t>Course detail view</t>
   </si>
   <si>
+    <t>viewcourse(courseID)</t>
+  </si>
+  <si>
     <t>Topic detail view</t>
   </si>
   <si>
+    <t>viewcourse(topicID)</t>
+  </si>
+  <si>
+    <t>createassignmet()</t>
+  </si>
+  <si>
+    <t>updateassignment()</t>
+  </si>
+  <si>
     <t>Delete assignment</t>
   </si>
   <si>
+    <t>deleteassignment()</t>
+  </si>
+  <si>
     <t>Add feedback</t>
   </si>
   <si>
+    <t>createfeedback()</t>
+  </si>
+  <si>
     <t>View feedback</t>
+  </si>
+  <si>
+    <t>viewfeedback()</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
   <si>
     <t>Edit feedback</t>
@@ -4112,10 +4226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AC7A6-2934-465A-B104-B8D88A31FA76}">
-  <dimension ref="A1:I470"/>
+  <dimension ref="A1:I509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="F469" sqref="F469"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="D432" sqref="D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4167,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4257,7 +4371,7 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D12)</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4392,7 +4506,7 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4407,21 +4521,18 @@
       <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4429,106 +4540,106 @@
     </row>
     <row r="35" spans="1:4">
       <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <f>SUM(D28:D38)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <f>SUM(D28:D43)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
       <c r="D46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="C47" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4536,173 +4647,164 @@
     </row>
     <row r="48" spans="1:4">
       <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="C54" t="s">
         <v>16</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <f>SUM(D41:D51)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
+        <f>SUM(D46:D57)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
         <v>5</v>
       </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
       <c r="D61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="C62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="1"/>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
-        <f>SUM(D55:D65)</f>
-        <v>23</v>
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>52</v>
-      </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="C69" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4710,454 +4812,442 @@
     </row>
     <row r="70" spans="1:4">
       <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2">
+        <f>SUM(D61:D73)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" t="s">
         <v>10</v>
       </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="C71" t="s">
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" t="s">
         <v>12</v>
       </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="C72" t="s">
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="C80" t="s">
         <v>13</v>
       </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="C75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2">
-        <f>SUM(D68:D78)</f>
-        <v>22.5</v>
-      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>53</v>
-      </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D81">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="C82" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="C83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2">
+        <f>SUM(D76:D87)</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="C93" t="s">
         <v>12</v>
       </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="C85" t="s">
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="C94" t="s">
         <v>13</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="C88" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2">
-        <f>SUM(D81:D91)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>54</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="C95" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="C96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="C97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2">
+        <f>SUM(D90:D101)</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="C108" t="s">
         <v>13</v>
-      </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="C100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2">
-        <f>SUM(D94:D104)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>9</v>
-      </c>
-      <c r="B108" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="C109" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="C110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="C111" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="C112" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="C115" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="1"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2">
+        <f>SUM(D104:D115)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2">
-        <f>SUM(D108:D118)</f>
-        <v>21</v>
+      <c r="A119">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121">
+      <c r="C121" t="s">
         <v>10</v>
       </c>
-      <c r="B121" t="s">
-        <v>56</v>
-      </c>
-      <c r="C121" t="s">
-        <v>6</v>
-      </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="C122" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D122">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="C123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123">
-        <v>1.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="C124" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="C125" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5217,16 +5307,16 @@
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2">
-        <f>SUM(D121:D131)</f>
-        <v>21</v>
+        <f>SUM(D119:D131)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
@@ -5240,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5248,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5277,7 +5367,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="C140" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -5285,19 +5375,17 @@
     </row>
     <row r="141" spans="1:4">
       <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="C142" t="s">
         <v>16</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>1</v>
       </c>
     </row>
@@ -5305,54 +5393,56 @@
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2">
-        <f>SUM(D134:D144)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147">
-        <v>12</v>
-      </c>
-      <c r="B147" t="s">
-        <v>58</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2">
+        <f>SUM(D134:D145)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" t="s">
         <v>6</v>
       </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="C149" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -5360,15 +5450,15 @@
     </row>
     <row r="150" spans="1:4">
       <c r="C150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="C151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151">
         <v>4</v>
@@ -5376,15 +5466,12 @@
     </row>
     <row r="152" spans="1:4">
       <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -5392,534 +5479,522 @@
     </row>
     <row r="154" spans="1:4">
       <c r="C154" t="s">
+        <v>71</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="C156" t="s">
         <v>16</v>
       </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D156" s="1">
-        <v>2</v>
+      <c r="D156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2">
-        <f>SUM(D147:D157)</f>
-        <v>20</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160">
-        <v>13</v>
-      </c>
-      <c r="B160" t="s">
-        <v>59</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2">
+        <f>SUM(D148:D159)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" t="s">
         <v>6</v>
       </c>
-      <c r="D160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="C162" t="s">
-        <v>10</v>
-      </c>
       <c r="D162">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="C163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="C164" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="C165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="C166" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="C167" t="s">
+        <v>73</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="C170" t="s">
         <v>16</v>
       </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1" t="s">
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D168" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1" t="s">
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D169" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2">
-        <f>SUM(D160:D170)</f>
-        <v>21</v>
+      <c r="D172" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173">
-        <v>14</v>
-      </c>
-      <c r="B173" t="s">
-        <v>60</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2">
+        <f>SUM(D162:D173)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>13</v>
+      </c>
+      <c r="B176" t="s">
+        <v>74</v>
+      </c>
+      <c r="C176" t="s">
         <v>6</v>
       </c>
-      <c r="D173">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="C174" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="C175" t="s">
-        <v>10</v>
-      </c>
-      <c r="D175">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="C176" t="s">
-        <v>12</v>
-      </c>
       <c r="D176">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="C177" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="C178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="C179" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="C180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="C181" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="C182" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="C184" t="s">
         <v>16</v>
       </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1" t="s">
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D181" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1" t="s">
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D182" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2">
-        <f>SUM(D173:D183)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186">
-        <v>15</v>
-      </c>
-      <c r="B186" t="s">
-        <v>61</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="D186" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2">
+        <f>SUM(D176:D187)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>14</v>
+      </c>
+      <c r="B190" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" t="s">
         <v>6</v>
       </c>
-      <c r="D186">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="C187" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="C188" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="C189" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="C190" t="s">
-        <v>13</v>
-      </c>
       <c r="D190">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="C191" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="C192" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="C195" t="s">
+        <v>77</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="C196" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="C198" t="s">
         <v>16</v>
       </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1" t="s">
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D194" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1" t="s">
+      <c r="D199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D195" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2">
-        <f>SUM(D186:D196)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199">
-        <v>16</v>
-      </c>
-      <c r="B199" t="s">
-        <v>62</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="D200" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2">
+        <f>SUM(D190:D201)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>78</v>
+      </c>
+      <c r="C204" t="s">
         <v>6</v>
       </c>
-      <c r="D199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="C200" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="C201" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="C202" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="C203" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="C204" t="s">
-        <v>14</v>
-      </c>
       <c r="D204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="C205" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="C206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="C209" t="s">
+        <v>79</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="C210" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="C212" t="s">
         <v>16</v>
       </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1" t="s">
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D207" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1" t="s">
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D208" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" s="1"/>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2">
-        <f>SUM(D199:D209)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212">
-        <v>17</v>
-      </c>
-      <c r="B212" t="s">
-        <v>63</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="D214" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2">
+        <f>SUM(D204:D215)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>16</v>
+      </c>
+      <c r="B218" t="s">
+        <v>80</v>
+      </c>
+      <c r="C218" t="s">
         <v>6</v>
-      </c>
-      <c r="D212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="C213" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="C214" t="s">
-        <v>10</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="C215" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="C216" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="C217" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="C218" t="s">
-        <v>15</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -5927,58 +6002,52 @@
     </row>
     <row r="219" spans="1:4">
       <c r="C219" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D220" s="1">
-        <v>1</v>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220">
+        <v>1.5</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D221" s="1">
-        <v>2</v>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="1"/>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2">
-        <f>SUM(D212:D222)</f>
-        <v>20</v>
+      <c r="C223" t="s">
+        <v>81</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225">
-        <v>18</v>
-      </c>
-      <c r="B225" t="s">
-        <v>35</v>
-      </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D225">
         <v>2</v>
@@ -5986,106 +6055,103 @@
     </row>
     <row r="226" spans="1:4">
       <c r="C226" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2">
+        <f>SUM(D218:D229)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>82</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="C233" t="s">
         <v>8</v>
       </c>
-      <c r="D226">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="C227" t="s">
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="C234" t="s">
         <v>10</v>
       </c>
-      <c r="D227">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="C228" t="s">
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="C235" t="s">
         <v>12</v>
       </c>
-      <c r="D228">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="C229" t="s">
+      <c r="D235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="C236" t="s">
         <v>13</v>
       </c>
-      <c r="D229">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="C230" t="s">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="C237" t="s">
+        <v>83</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="C238" t="s">
         <v>14</v>
-      </c>
-      <c r="D230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="C231" t="s">
-        <v>15</v>
-      </c>
-      <c r="D231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="C232" t="s">
-        <v>16</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D233" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D234" s="1"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2">
-        <f>SUM(D225:D235)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238">
-        <v>19</v>
-      </c>
-      <c r="B238" t="s">
-        <v>64</v>
-      </c>
-      <c r="C238" t="s">
-        <v>6</v>
       </c>
       <c r="D238">
         <v>2</v>
@@ -6093,248 +6159,239 @@
     </row>
     <row r="239" spans="1:4">
       <c r="C239" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="C240" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2">
+        <f>SUM(D232:D243)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>18</v>
+      </c>
+      <c r="B246" t="s">
+        <v>35</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="C248" t="s">
         <v>10</v>
       </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="C241" t="s">
+      <c r="D248">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="C249" t="s">
         <v>12</v>
       </c>
-      <c r="D241">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="C242" t="s">
+      <c r="D249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="C250" t="s">
         <v>13</v>
       </c>
-      <c r="D242">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="C243" t="s">
-        <v>14</v>
-      </c>
-      <c r="D243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="C244" t="s">
-        <v>15</v>
-      </c>
-      <c r="D244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="C245" t="s">
-        <v>16</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D246" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D247" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D248" s="1"/>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2">
-        <f>SUM(D238:D248)</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251">
-        <v>20</v>
-      </c>
-      <c r="B251" t="s">
-        <v>27</v>
-      </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="C252" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="C253" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="C254" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="C255" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="C256" t="s">
-        <v>14</v>
-      </c>
-      <c r="D256">
-        <v>2</v>
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="C257" t="s">
-        <v>15</v>
-      </c>
-      <c r="D257">
-        <v>2</v>
-      </c>
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="1"/>
     </row>
     <row r="258" spans="1:4">
-      <c r="C258" t="s">
-        <v>16</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D259" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D260" s="1">
-        <v>2</v>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2">
+        <f>SUM(D246:D258)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D261" s="1"/>
+      <c r="A261">
+        <v>19</v>
+      </c>
+      <c r="B261" t="s">
+        <v>86</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2">
-        <f>SUM(D251:D261)</f>
-        <v>20</v>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264">
-        <v>21</v>
-      </c>
-      <c r="B264" t="s">
-        <v>65</v>
-      </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="C265" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="C266" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="C267" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="C268" t="s">
-        <v>13</v>
-      </c>
-      <c r="D268">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6394,16 +6451,16 @@
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2">
-        <f>SUM(D264:D274)</f>
+        <f>SUM(D261:D274)</f>
         <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B277" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -6440,13 +6497,10 @@
       <c r="C281" t="s">
         <v>13</v>
       </c>
-      <c r="D281">
-        <v>4</v>
-      </c>
     </row>
     <row r="282" spans="1:4">
       <c r="C282" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -6454,7 +6508,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="C283" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -6462,189 +6516,186 @@
     </row>
     <row r="284" spans="1:4">
       <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="C285" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="C286" t="s">
         <v>16</v>
       </c>
-      <c r="D284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D285" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D286" s="1">
-        <v>2</v>
+      <c r="D286">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D287" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D287" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2">
-        <f>SUM(D277:D287)</f>
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D288" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2">
+        <f>SUM(D277:D289)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290">
-        <v>23</v>
-      </c>
-      <c r="B290" t="s">
-        <v>67</v>
-      </c>
-      <c r="C290" t="s">
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>21</v>
+      </c>
+      <c r="B292" t="s">
+        <v>92</v>
+      </c>
+      <c r="C292" t="s">
         <v>6</v>
       </c>
-      <c r="D290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="C291" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="C292" t="s">
-        <v>10</v>
-      </c>
       <c r="D292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="C293" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="C294" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D294">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="C295" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="C296" t="s">
-        <v>15</v>
-      </c>
-      <c r="D296">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="C297" t="s">
+        <v>93</v>
+      </c>
+      <c r="D297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="C299" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="C300" t="s">
         <v>16</v>
       </c>
-      <c r="D297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1" t="s">
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D298" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1" t="s">
+      <c r="D301" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D299" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" s="1"/>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2">
-        <f>SUM(D290:D300)</f>
-        <v>20</v>
+      <c r="D302" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303">
-        <v>24</v>
-      </c>
-      <c r="B303" t="s">
-        <v>68</v>
-      </c>
-      <c r="C303" t="s">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2">
+        <f>SUM(D292:D303)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>22</v>
+      </c>
+      <c r="B306" t="s">
+        <v>94</v>
+      </c>
+      <c r="C306" t="s">
         <v>6</v>
-      </c>
-      <c r="D303">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="C304" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="C305" t="s">
-        <v>10</v>
-      </c>
-      <c r="D305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="C306" t="s">
-        <v>12</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -6652,229 +6703,223 @@
     </row>
     <row r="307" spans="1:4">
       <c r="C307" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D307">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="C308" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="C309" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="C311" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="C313" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="C314" t="s">
         <v>16</v>
       </c>
-      <c r="D310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1" t="s">
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D311" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1" t="s">
+      <c r="D315" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D312" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" s="1"/>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2">
-        <f>SUM(D303:D313)</f>
+      <c r="D316" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2">
+        <f>SUM(D306:D317)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316">
-        <v>25</v>
-      </c>
-      <c r="B316" t="s">
-        <v>69</v>
-      </c>
-      <c r="C316" t="s">
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>23</v>
+      </c>
+      <c r="B320" t="s">
+        <v>96</v>
+      </c>
+      <c r="C320" t="s">
         <v>6</v>
       </c>
-      <c r="D316">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="C317" t="s">
-        <v>8</v>
-      </c>
-      <c r="D317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="C318" t="s">
-        <v>10</v>
-      </c>
-      <c r="D318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="C319" t="s">
-        <v>12</v>
-      </c>
-      <c r="D319">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="C320" t="s">
-        <v>13</v>
-      </c>
       <c r="D320">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="C321" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="C322" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="C323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="C324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="C325" t="s">
+        <v>97</v>
+      </c>
+      <c r="D325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="C326" t="s">
+        <v>14</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="C327" t="s">
+        <v>15</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="C328" t="s">
         <v>16</v>
       </c>
-      <c r="D323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1" t="s">
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D324" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1" t="s">
+      <c r="D329" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D325" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D326" s="1"/>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2">
-        <f>SUM(D316:D326)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329">
-        <v>26</v>
-      </c>
-      <c r="B329" t="s">
-        <v>36</v>
-      </c>
-      <c r="C329" t="s">
+      <c r="D330" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2">
+        <f>SUM(D320:D331)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>24</v>
+      </c>
+      <c r="B334" t="s">
+        <v>98</v>
+      </c>
+      <c r="C334" t="s">
         <v>6</v>
-      </c>
-      <c r="D329">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="C330" t="s">
-        <v>8</v>
-      </c>
-      <c r="D330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="C331" t="s">
-        <v>10</v>
-      </c>
-      <c r="D331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="C332" t="s">
-        <v>12</v>
-      </c>
-      <c r="D332">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="C333" t="s">
-        <v>13</v>
-      </c>
-      <c r="D333">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="C334" t="s">
-        <v>14</v>
       </c>
       <c r="D334">
         <v>2</v>
@@ -6882,114 +6927,111 @@
     </row>
     <row r="335" spans="1:4">
       <c r="C335" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="C336" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="C337" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="C338" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="C339" t="s">
+        <v>99</v>
+      </c>
+      <c r="D339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="C340" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="C341" t="s">
+        <v>15</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="C342" t="s">
         <v>16</v>
       </c>
-      <c r="D336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1" t="s">
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D337" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1" t="s">
+      <c r="D343" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D338" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D339" s="1"/>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2">
-        <f>SUM(D329:D339)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
-      <c r="A342">
-        <v>27</v>
-      </c>
-      <c r="B342" t="s">
-        <v>37</v>
-      </c>
-      <c r="C342" t="s">
+      <c r="D344" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2">
+        <f>SUM(D334:D345)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>25</v>
+      </c>
+      <c r="B348" t="s">
+        <v>100</v>
+      </c>
+      <c r="C348" t="s">
         <v>6</v>
-      </c>
-      <c r="D342">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
-      <c r="C343" t="s">
-        <v>8</v>
-      </c>
-      <c r="D343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
-      <c r="C344" t="s">
-        <v>10</v>
-      </c>
-      <c r="D344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="C345" t="s">
-        <v>12</v>
-      </c>
-      <c r="D345">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="C346" t="s">
-        <v>13</v>
-      </c>
-      <c r="D346">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="C347" t="s">
-        <v>14</v>
-      </c>
-      <c r="D347">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="C348" t="s">
-        <v>15</v>
       </c>
       <c r="D348">
         <v>2</v>
@@ -6997,58 +7039,52 @@
     </row>
     <row r="349" spans="1:4">
       <c r="C349" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D349">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D350" s="1">
+      <c r="C350" t="s">
+        <v>10</v>
+      </c>
+      <c r="D350">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D351" s="1">
-        <v>2</v>
+      <c r="C351" t="s">
+        <v>12</v>
+      </c>
+      <c r="D351">
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D352" s="1"/>
+      <c r="C352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352">
+        <v>4</v>
+      </c>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2">
-        <f>SUM(D342:D352)</f>
-        <v>20</v>
+      <c r="C353" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="C354" t="s">
+        <v>14</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355">
-        <v>28</v>
-      </c>
-      <c r="B355" t="s">
-        <v>70</v>
-      </c>
       <c r="C355" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D355">
         <v>2</v>
@@ -7056,106 +7092,103 @@
     </row>
     <row r="356" spans="1:4">
       <c r="C356" t="s">
+        <v>16</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D357" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D358" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2">
+        <f>SUM(D348:D359)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>26</v>
+      </c>
+      <c r="B362" t="s">
+        <v>36</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="C363" t="s">
         <v>8</v>
       </c>
-      <c r="D356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="C357" t="s">
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="C364" t="s">
         <v>10</v>
       </c>
-      <c r="D357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="C358" t="s">
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="C365" t="s">
         <v>12</v>
       </c>
-      <c r="D358">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="C359" t="s">
+      <c r="D365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="C366" t="s">
         <v>13</v>
       </c>
-      <c r="D359">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="C360" t="s">
+    </row>
+    <row r="367" spans="1:4">
+      <c r="C367" t="s">
+        <v>102</v>
+      </c>
+      <c r="D367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="C368" t="s">
         <v>14</v>
-      </c>
-      <c r="D360">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="C361" t="s">
-        <v>15</v>
-      </c>
-      <c r="D361">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="C362" t="s">
-        <v>16</v>
-      </c>
-      <c r="D362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D363" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D364" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D365" s="1"/>
-    </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2">
-        <f>SUM(D355:D365)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368">
-        <v>29</v>
-      </c>
-      <c r="B368" t="s">
-        <v>71</v>
-      </c>
-      <c r="C368" t="s">
-        <v>6</v>
       </c>
       <c r="D368">
         <v>2</v>
@@ -7163,467 +7196,455 @@
     </row>
     <row r="369" spans="1:4">
       <c r="C369" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="C370" t="s">
+        <v>16</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D371" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D372" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" s="1"/>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2">
+        <f>SUM(D362:D373)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>27</v>
+      </c>
+      <c r="B376" t="s">
+        <v>37</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="C377" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="C378" t="s">
         <v>10</v>
       </c>
-      <c r="D370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="C371" t="s">
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="C379" t="s">
         <v>12</v>
       </c>
-      <c r="D371">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="C372" t="s">
+      <c r="D379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="C380" t="s">
         <v>13</v>
       </c>
-      <c r="D372">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="C373" t="s">
-        <v>14</v>
-      </c>
-      <c r="D373">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="C374" t="s">
-        <v>15</v>
-      </c>
-      <c r="D374">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="C375" t="s">
-        <v>16</v>
-      </c>
-      <c r="D375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="1"/>
-      <c r="B376" s="1"/>
-      <c r="C376" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D376" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-      <c r="C377" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D377" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
-      <c r="C378" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D378" s="1"/>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2">
-        <f>SUM(D368:D378)</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381">
-        <v>30</v>
-      </c>
-      <c r="B381" t="s">
-        <v>72</v>
-      </c>
       <c r="C381" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="C382" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="C383" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="C384" t="s">
+        <v>16</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D385" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D386" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2">
+        <f>SUM(D376:D387)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>28</v>
+      </c>
+      <c r="B390" t="s">
+        <v>104</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="C391" t="s">
+        <v>8</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="C392" t="s">
+        <v>10</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="C393" t="s">
         <v>12</v>
       </c>
-      <c r="D384">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="C385" t="s">
+      <c r="D393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="C394" t="s">
         <v>13</v>
-      </c>
-      <c r="D385">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="C386" t="s">
-        <v>14</v>
-      </c>
-      <c r="D386">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="C387" t="s">
-        <v>15</v>
-      </c>
-      <c r="D387">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="C388" t="s">
-        <v>16</v>
-      </c>
-      <c r="D388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="1"/>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D389" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
-      <c r="C390" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D390" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D391" s="1"/>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2">
-        <f>SUM(D381:D391)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394">
-        <v>31</v>
-      </c>
-      <c r="B394" t="s">
-        <v>73</v>
-      </c>
-      <c r="C394" t="s">
-        <v>6</v>
-      </c>
-      <c r="D394">
-        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="C395" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="C396" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="C397" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D397">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="C398" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D398">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:4">
-      <c r="C399" t="s">
-        <v>14</v>
-      </c>
-      <c r="D399">
-        <v>2</v>
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D399" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:4">
-      <c r="C400" t="s">
-        <v>15</v>
-      </c>
-      <c r="D400">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D400" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="C401" t="s">
-        <v>16</v>
-      </c>
-      <c r="D401">
-        <v>1</v>
-      </c>
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D401" s="1"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
-      <c r="C402" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D402" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
-      <c r="C403" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D403" s="1">
-        <v>2</v>
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2">
+        <f>SUM(D390:D401)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
-      <c r="C404" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D404" s="1"/>
+      <c r="A404">
+        <v>29</v>
+      </c>
+      <c r="B404" t="s">
+        <v>106</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2">
-        <f>SUM(D394:D404)</f>
-        <v>20</v>
+      <c r="C405" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="C406" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407">
-        <v>32</v>
-      </c>
-      <c r="B407" t="s">
-        <v>74</v>
-      </c>
       <c r="C407" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D407">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="C408" t="s">
-        <v>8</v>
-      </c>
-      <c r="D408">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="C409" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="C410" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D410">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="C411" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D411">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="C412" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:4">
-      <c r="C413" t="s">
-        <v>15</v>
-      </c>
-      <c r="D413">
-        <v>2</v>
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:4">
-      <c r="C414" t="s">
-        <v>16</v>
-      </c>
-      <c r="D414">
-        <v>1</v>
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D414" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D415" s="1">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D415" s="1"/>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="1"/>
-      <c r="B416" s="1"/>
-      <c r="C416" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D416" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="1"/>
-      <c r="B417" s="1"/>
-      <c r="C417" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D417" s="1"/>
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2">
+        <f>SUM(D404:D415)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2">
-        <f>SUM(D407:D417)</f>
-        <v>20</v>
+      <c r="A418">
+        <v>30</v>
+      </c>
+      <c r="B418" t="s">
+        <v>108</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="C419" t="s">
+        <v>8</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420">
-        <v>33</v>
-      </c>
-      <c r="B420" t="s">
-        <v>29</v>
-      </c>
       <c r="C420" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="C421" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D421">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="C422" t="s">
-        <v>10</v>
-      </c>
-      <c r="D422">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="C423" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D423">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="C424" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D424">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="C425" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D425">
         <v>2</v>
@@ -7631,17 +7652,19 @@
     </row>
     <row r="426" spans="1:4">
       <c r="C426" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:4">
-      <c r="C427" t="s">
-        <v>16</v>
-      </c>
-      <c r="D427">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D427" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7649,45 +7672,46 @@
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D428" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D429" s="1">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D429" s="1"/>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="1"/>
-      <c r="B430" s="1"/>
-      <c r="C430" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D430" s="1"/>
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2">
+        <f>SUM(D418:D429)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="2"/>
+      <c r="A431" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2">
-        <f>SUM(D420:D430)</f>
-        <v>20</v>
+        <f>SUM(D14,D26,D44,D58,D74,D88,D102,D116,D132,D146,D160,D174,D188,D202,D216,D230,D244,D259,D275,D290,D304,D318,D332,D346,D360,D374,D388,D402,D416)</f>
+        <v>565</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B433" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="C433" t="s">
         <v>6</v>
@@ -7791,10 +7815,10 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B446" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C446" t="s">
         <v>6</v>
@@ -7898,10 +7922,10 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B459" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C459" t="s">
         <v>6</v>
@@ -8000,6 +8024,327 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2">
         <f>SUM(D459:D469)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472">
+        <v>34</v>
+      </c>
+      <c r="B472" t="s">
+        <v>31</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="C473" t="s">
+        <v>8</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="C474" t="s">
+        <v>10</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="C475" t="s">
+        <v>12</v>
+      </c>
+      <c r="D475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="C476" t="s">
+        <v>13</v>
+      </c>
+      <c r="D476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="C477" t="s">
+        <v>14</v>
+      </c>
+      <c r="D477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="C478" t="s">
+        <v>15</v>
+      </c>
+      <c r="D478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="C479" t="s">
+        <v>16</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D480" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D481" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D482" s="1"/>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="2"/>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="2">
+        <f>SUM(D472:D482)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485">
+        <v>35</v>
+      </c>
+      <c r="B485" t="s">
+        <v>113</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="C486" t="s">
+        <v>8</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="C487" t="s">
+        <v>10</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="C488" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="C489" t="s">
+        <v>13</v>
+      </c>
+      <c r="D489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="C490" t="s">
+        <v>14</v>
+      </c>
+      <c r="D490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="C491" t="s">
+        <v>15</v>
+      </c>
+      <c r="D491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="C492" t="s">
+        <v>16</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D493" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D494" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="2"/>
+      <c r="B496" s="2"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2">
+        <f>SUM(D485:D495)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498">
+        <v>36</v>
+      </c>
+      <c r="B498" t="s">
+        <v>114</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="C499" t="s">
+        <v>8</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="C500" t="s">
+        <v>10</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="C501" t="s">
+        <v>12</v>
+      </c>
+      <c r="D501">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="C502" t="s">
+        <v>13</v>
+      </c>
+      <c r="D502">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="C503" t="s">
+        <v>14</v>
+      </c>
+      <c r="D503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="C504" t="s">
+        <v>15</v>
+      </c>
+      <c r="D504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="C505" t="s">
+        <v>16</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D506" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D507" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="2"/>
+      <c r="B509" s="2"/>
+      <c r="C509" s="2"/>
+      <c r="D509" s="2">
+        <f>SUM(D498:D508)</f>
         <v>20</v>
       </c>
     </row>
@@ -8264,7 +8609,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -8375,7 +8720,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -8486,7 +8831,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -8603,7 +8948,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -8714,7 +9059,7 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -8825,7 +9170,7 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -8936,7 +9281,7 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -9047,7 +9392,7 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
@@ -9158,7 +9503,7 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
@@ -9266,7 +9611,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="C167" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D167">
         <v>252.5</v>
